--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>F2rl2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H2">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.05516248511555</v>
+        <v>0.2977046666666667</v>
       </c>
       <c r="N2">
-        <v>2.05516248511555</v>
+        <v>0.8931140000000001</v>
       </c>
       <c r="O2">
-        <v>0.5409204532627555</v>
+        <v>0.06950565297556732</v>
       </c>
       <c r="P2">
-        <v>0.5409204532627555</v>
+        <v>0.06950565297556732</v>
       </c>
       <c r="Q2">
-        <v>1.753217253370865</v>
+        <v>0.273104436946</v>
       </c>
       <c r="R2">
-        <v>1.753217253370865</v>
+        <v>2.457939932514</v>
       </c>
       <c r="S2">
-        <v>0.2496247606330595</v>
+        <v>0.02742575880409448</v>
       </c>
       <c r="T2">
-        <v>0.2496247606330595</v>
+        <v>0.02742575880409448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H3">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43964380342443</v>
+        <v>2.108688666666667</v>
       </c>
       <c r="N3">
-        <v>1.43964380342443</v>
+        <v>6.326066000000001</v>
       </c>
       <c r="O3">
-        <v>0.3789154309331781</v>
+        <v>0.4923193994232935</v>
       </c>
       <c r="P3">
-        <v>0.3789154309331781</v>
+        <v>0.4923193994232934</v>
       </c>
       <c r="Q3">
-        <v>1.228130803842624</v>
+        <v>1.934441396074</v>
       </c>
       <c r="R3">
-        <v>1.228130803842624</v>
+        <v>17.409972564666</v>
       </c>
       <c r="S3">
-        <v>0.174862446365882</v>
+        <v>0.194260934544507</v>
       </c>
       <c r="T3">
-        <v>0.174862446365882</v>
+        <v>0.1942609345445069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H4">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.30457395807318</v>
+        <v>1.571743</v>
       </c>
       <c r="N4">
-        <v>0.30457395807318</v>
+        <v>4.715229</v>
       </c>
       <c r="O4">
-        <v>0.08016411580406647</v>
+        <v>0.3669577126484764</v>
       </c>
       <c r="P4">
-        <v>0.08016411580406647</v>
+        <v>0.3669577126484764</v>
       </c>
       <c r="Q4">
-        <v>0.2598258396057335</v>
+        <v>1.441865160681</v>
       </c>
       <c r="R4">
-        <v>0.2598258396057335</v>
+        <v>12.976786446129</v>
       </c>
       <c r="S4">
-        <v>0.0369942532182833</v>
+        <v>0.1447953265317436</v>
       </c>
       <c r="T4">
-        <v>0.0369942532182833</v>
+        <v>0.1447953265317435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.729449170168489</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H5">
-        <v>0.729449170168489</v>
+        <v>2.752101</v>
       </c>
       <c r="I5">
-        <v>0.3946023983900525</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J5">
-        <v>0.3946023983900525</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.05516248511555</v>
+        <v>0.3050356666666666</v>
       </c>
       <c r="N5">
-        <v>2.05516248511555</v>
+        <v>0.915107</v>
       </c>
       <c r="O5">
-        <v>0.5409204532627555</v>
+        <v>0.0712172349526628</v>
       </c>
       <c r="P5">
-        <v>0.5409204532627555</v>
+        <v>0.0712172349526628</v>
       </c>
       <c r="Q5">
-        <v>1.499136569328948</v>
+        <v>0.279829654423</v>
       </c>
       <c r="R5">
-        <v>1.499136569328948</v>
+        <v>2.518466889807</v>
       </c>
       <c r="S5">
-        <v>0.2134485081957176</v>
+        <v>0.02810112019511338</v>
       </c>
       <c r="T5">
-        <v>0.2134485081957176</v>
+        <v>0.02810112019511337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H6">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I6">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J6">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.43964380342443</v>
+        <v>0.2977046666666667</v>
       </c>
       <c r="N6">
-        <v>1.43964380342443</v>
+        <v>0.8931140000000001</v>
       </c>
       <c r="O6">
-        <v>0.3789154309331781</v>
+        <v>0.06950565297556732</v>
       </c>
       <c r="P6">
-        <v>0.3789154309331781</v>
+        <v>0.06950565297556732</v>
       </c>
       <c r="Q6">
-        <v>1.050146977746158</v>
+        <v>0.245321446634</v>
       </c>
       <c r="R6">
-        <v>1.050146977746158</v>
+        <v>2.207893019706</v>
       </c>
       <c r="S6">
-        <v>0.1495209378332324</v>
+        <v>0.02463572873474022</v>
       </c>
       <c r="T6">
-        <v>0.1495209378332324</v>
+        <v>0.02463572873474022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H7">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.30457395807318</v>
+        <v>2.108688666666667</v>
       </c>
       <c r="N7">
-        <v>0.30457395807318</v>
+        <v>6.326066000000001</v>
       </c>
       <c r="O7">
-        <v>0.08016411580406647</v>
+        <v>0.4923193994232935</v>
       </c>
       <c r="P7">
-        <v>0.08016411580406647</v>
+        <v>0.4923193994232934</v>
       </c>
       <c r="Q7">
-        <v>0.2221712209714133</v>
+        <v>1.737650134946</v>
       </c>
       <c r="R7">
-        <v>0.2221712209714133</v>
+        <v>15.638851214514</v>
       </c>
       <c r="S7">
-        <v>0.03163295236110254</v>
+        <v>0.1744987156556309</v>
       </c>
       <c r="T7">
-        <v>0.03163295236110254</v>
+        <v>0.1744987156556309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.266038702098824</v>
+        <v>0.824043</v>
       </c>
       <c r="H8">
-        <v>0.266038702098824</v>
+        <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.1439161413927229</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J8">
-        <v>0.1439161413927229</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.05516248511555</v>
+        <v>1.571743</v>
       </c>
       <c r="N8">
-        <v>2.05516248511555</v>
+        <v>4.715229</v>
       </c>
       <c r="O8">
-        <v>0.5409204532627555</v>
+        <v>0.3669577126484764</v>
       </c>
       <c r="P8">
-        <v>0.5409204532627555</v>
+        <v>0.3669577126484764</v>
       </c>
       <c r="Q8">
-        <v>0.5467527601423346</v>
+        <v>1.295183816949</v>
       </c>
       <c r="R8">
-        <v>0.5467527601423346</v>
+        <v>11.656654352541</v>
       </c>
       <c r="S8">
-        <v>0.07784718443397846</v>
+        <v>0.1300652577007867</v>
       </c>
       <c r="T8">
-        <v>0.07784718443397846</v>
+        <v>0.1300652577007867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.266038702098824</v>
+        <v>0.824043</v>
       </c>
       <c r="H9">
-        <v>0.266038702098824</v>
+        <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.1439161413927229</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J9">
-        <v>0.1439161413927229</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43964380342443</v>
+        <v>0.3050356666666666</v>
       </c>
       <c r="N9">
-        <v>1.43964380342443</v>
+        <v>0.915107</v>
       </c>
       <c r="O9">
-        <v>0.3789154309331781</v>
+        <v>0.0712172349526628</v>
       </c>
       <c r="P9">
-        <v>0.3789154309331781</v>
+        <v>0.0712172349526628</v>
       </c>
       <c r="Q9">
-        <v>0.3830009689476499</v>
+        <v>0.251362505867</v>
       </c>
       <c r="R9">
-        <v>0.3830009689476499</v>
+        <v>2.262262552803</v>
       </c>
       <c r="S9">
-        <v>0.05453204673406379</v>
+        <v>0.02524238542365467</v>
       </c>
       <c r="T9">
-        <v>0.05453204673406379</v>
+        <v>0.02524238542365467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.172111</v>
+      </c>
+      <c r="H10">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J10">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2977046666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.8931140000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.06950565297556732</v>
+      </c>
+      <c r="P10">
+        <v>0.06950565297556732</v>
+      </c>
+      <c r="Q10">
+        <v>0.05123824788466667</v>
+      </c>
+      <c r="R10">
+        <v>0.461144230962</v>
+      </c>
+      <c r="S10">
+        <v>0.005145459530952722</v>
+      </c>
+      <c r="T10">
+        <v>0.005145459530952721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.172111</v>
+      </c>
+      <c r="H11">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J11">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.108688666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.326066000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4923193994232935</v>
+      </c>
+      <c r="P11">
+        <v>0.4923193994232934</v>
+      </c>
+      <c r="Q11">
+        <v>0.3629285151086667</v>
+      </c>
+      <c r="R11">
+        <v>3.266356635978</v>
+      </c>
+      <c r="S11">
+        <v>0.03644609377205594</v>
+      </c>
+      <c r="T11">
+        <v>0.03644609377205593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.172111</v>
+      </c>
+      <c r="H12">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J12">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.571743</v>
+      </c>
+      <c r="N12">
+        <v>4.715229</v>
+      </c>
+      <c r="O12">
+        <v>0.3669577126484764</v>
+      </c>
+      <c r="P12">
+        <v>0.3669577126484764</v>
+      </c>
+      <c r="Q12">
+        <v>0.270514259473</v>
+      </c>
+      <c r="R12">
+        <v>2.434628335257</v>
+      </c>
+      <c r="S12">
+        <v>0.0271656473850759</v>
+      </c>
+      <c r="T12">
+        <v>0.02716564738507589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.172111</v>
+      </c>
+      <c r="H13">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J13">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3050356666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.915107</v>
+      </c>
+      <c r="O13">
+        <v>0.0712172349526628</v>
+      </c>
+      <c r="P13">
+        <v>0.0712172349526628</v>
+      </c>
+      <c r="Q13">
+        <v>0.05249999362566666</v>
+      </c>
+      <c r="R13">
+        <v>0.4724999426309999</v>
+      </c>
+      <c r="S13">
+        <v>0.005272166862227613</v>
+      </c>
+      <c r="T13">
+        <v>0.005272166862227612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.076847</v>
+      </c>
+      <c r="H14">
+        <v>0.230541</v>
+      </c>
+      <c r="I14">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J14">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2977046666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.8931140000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.06950565297556732</v>
+      </c>
+      <c r="P14">
+        <v>0.06950565297556732</v>
+      </c>
+      <c r="Q14">
+        <v>0.02287771051933333</v>
+      </c>
+      <c r="R14">
+        <v>0.205899394674</v>
+      </c>
+      <c r="S14">
+        <v>0.002297430893871535</v>
+      </c>
+      <c r="T14">
+        <v>0.002297430893871535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="H10">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="I10">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="J10">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.30457395807318</v>
-      </c>
-      <c r="N10">
-        <v>0.30457395807318</v>
-      </c>
-      <c r="O10">
-        <v>0.08016411580406647</v>
-      </c>
-      <c r="P10">
-        <v>0.08016411580406647</v>
-      </c>
-      <c r="Q10">
-        <v>0.08102846049889045</v>
-      </c>
-      <c r="R10">
-        <v>0.08102846049889045</v>
-      </c>
-      <c r="S10">
-        <v>0.01153691022468064</v>
-      </c>
-      <c r="T10">
-        <v>0.01153691022468064</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.076847</v>
+      </c>
+      <c r="H15">
+        <v>0.230541</v>
+      </c>
+      <c r="I15">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J15">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.108688666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.326066000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.4923193994232935</v>
+      </c>
+      <c r="P15">
+        <v>0.4923193994232934</v>
+      </c>
+      <c r="Q15">
+        <v>0.1620463979673334</v>
+      </c>
+      <c r="R15">
+        <v>1.458417581706</v>
+      </c>
+      <c r="S15">
+        <v>0.01627306196641227</v>
+      </c>
+      <c r="T15">
+        <v>0.01627306196641227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.076847</v>
+      </c>
+      <c r="H16">
+        <v>0.230541</v>
+      </c>
+      <c r="I16">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J16">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.571743</v>
+      </c>
+      <c r="N16">
+        <v>4.715229</v>
+      </c>
+      <c r="O16">
+        <v>0.3669577126484764</v>
+      </c>
+      <c r="P16">
+        <v>0.3669577126484764</v>
+      </c>
+      <c r="Q16">
+        <v>0.120783734321</v>
+      </c>
+      <c r="R16">
+        <v>1.087053608889</v>
+      </c>
+      <c r="S16">
+        <v>0.01212937293142755</v>
+      </c>
+      <c r="T16">
+        <v>0.01212937293142755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.076847</v>
+      </c>
+      <c r="H17">
+        <v>0.230541</v>
+      </c>
+      <c r="I17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3050356666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.915107</v>
+      </c>
+      <c r="O17">
+        <v>0.0712172349526628</v>
+      </c>
+      <c r="P17">
+        <v>0.0712172349526628</v>
+      </c>
+      <c r="Q17">
+        <v>0.02344107587633333</v>
+      </c>
+      <c r="R17">
+        <v>0.210969682887</v>
+      </c>
+      <c r="S17">
+        <v>0.002354005303912042</v>
+      </c>
+      <c r="T17">
+        <v>0.002354005303912042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.003601</v>
+      </c>
+      <c r="I18">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J18">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2977046666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.8931140000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.06950565297556732</v>
+      </c>
+      <c r="P18">
+        <v>0.06950565297556732</v>
+      </c>
+      <c r="Q18">
+        <v>0.09959223372377778</v>
+      </c>
+      <c r="R18">
+        <v>0.896330103514</v>
+      </c>
+      <c r="S18">
+        <v>0.01000127501190837</v>
+      </c>
+      <c r="T18">
+        <v>0.01000127501190837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.003601</v>
+      </c>
+      <c r="I19">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J19">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.108688666666667</v>
+      </c>
+      <c r="N19">
+        <v>6.326066000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.4923193994232935</v>
+      </c>
+      <c r="P19">
+        <v>0.4923193994232934</v>
+      </c>
+      <c r="Q19">
+        <v>0.7054273515184446</v>
+      </c>
+      <c r="R19">
+        <v>6.348846163666001</v>
+      </c>
+      <c r="S19">
+        <v>0.07084059348468742</v>
+      </c>
+      <c r="T19">
+        <v>0.07084059348468742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.003601</v>
+      </c>
+      <c r="I20">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J20">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.571743</v>
+      </c>
+      <c r="N20">
+        <v>4.715229</v>
+      </c>
+      <c r="O20">
+        <v>0.3669577126484764</v>
+      </c>
+      <c r="P20">
+        <v>0.3669577126484764</v>
+      </c>
+      <c r="Q20">
+        <v>0.5258009488476666</v>
+      </c>
+      <c r="R20">
+        <v>4.732208539629</v>
+      </c>
+      <c r="S20">
+        <v>0.05280210809944271</v>
+      </c>
+      <c r="T20">
+        <v>0.05280210809944271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.003601</v>
+      </c>
+      <c r="I21">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J21">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3050356666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.915107</v>
+      </c>
+      <c r="O21">
+        <v>0.0712172349526628</v>
+      </c>
+      <c r="P21">
+        <v>0.0712172349526628</v>
+      </c>
+      <c r="Q21">
+        <v>0.1020447000341111</v>
+      </c>
+      <c r="R21">
+        <v>0.918402300307</v>
+      </c>
+      <c r="S21">
+        <v>0.0102475571677551</v>
+      </c>
+      <c r="T21">
+        <v>0.0102475571677551</v>
       </c>
     </row>
   </sheetData>
